--- a/rmnd_lca/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
+++ b/rmnd_lca/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
@@ -644,25 +644,25 @@
     <t>E = 1/(efficiency_noCCS)*3.6</t>
   </si>
   <si>
-    <t>Electricity, at power plant/biogas, post, pipeline 400km, storage 3000m</t>
-  </si>
-  <si>
     <t>CCS Europe 2025::Natural gas</t>
   </si>
   <si>
-    <t>Electricity, at power plant/biogas, post, pipeline 400km, storage 1000m</t>
-  </si>
-  <si>
-    <t>Electricity, at power plant/biogas, post, pipeline 200km, storage 1000m</t>
-  </si>
-  <si>
-    <t>Electricity, at power plant/biogas, NGCC, no CCS/kWh</t>
-  </si>
-  <si>
     <t>market for water, decarbonised</t>
   </si>
   <si>
     <t>Water, decarbonised</t>
+  </si>
+  <si>
+    <t>electricity production, at power plant/biogas, NGCC, no CCS/kWh</t>
+  </si>
+  <si>
+    <t>electricity production, at power plant/biogas, post, pipeline 200km, storage 1000m</t>
+  </si>
+  <si>
+    <t>electricity production, at power plant/biogas, post, pipeline 400km, storage 1000m</t>
+  </si>
+  <si>
+    <t>electricity production, at power plant/biogas, post, pipeline 400km, storage 3000m</t>
   </si>
 </sst>
 </file>
@@ -1067,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="C296" sqref="C296"/>
+    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
+      <selection activeCell="H443" sqref="H443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6747,7 +6747,7 @@
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B296">
         <v>0.5</v>
@@ -6780,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="M296" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.3">
@@ -7924,7 +7924,7 @@
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B338">
         <v>0.5</v>
@@ -9104,7 +9104,7 @@
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B380">
         <v>0.5</v>
@@ -10336,7 +10336,7 @@
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B424">
         <v>0.5</v>
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.3">
@@ -10477,7 +10477,7 @@
         <v>8</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>210</v>
+        <v>103</v>
       </c>
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.3">
@@ -10538,7 +10538,7 @@
     </row>
     <row r="436" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -10550,7 +10550,7 @@
         <v>28</v>
       </c>
       <c r="E436" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F436" t="s">
         <v>20</v>
@@ -10562,7 +10562,7 @@
         <v>41</v>
       </c>
       <c r="K436" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.3">
@@ -10602,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.3">
@@ -10626,7 +10626,7 @@
         <v>8</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>209</v>
+        <v>103</v>
       </c>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.3">
@@ -10687,7 +10687,7 @@
     </row>
     <row r="447" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A447" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -10699,7 +10699,7 @@
         <v>28</v>
       </c>
       <c r="E447" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F447" t="s">
         <v>20</v>
@@ -10711,7 +10711,7 @@
         <v>41</v>
       </c>
       <c r="K447" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.3">
@@ -10748,7 +10748,7 @@
         <v>1</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.3">
@@ -10772,7 +10772,7 @@
         <v>8</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>208</v>
+        <v>103</v>
       </c>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.3">
@@ -10833,7 +10833,7 @@
     </row>
     <row r="458" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A458" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B458">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         <v>28</v>
       </c>
       <c r="E458" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F458" t="s">
         <v>20</v>
@@ -10857,7 +10857,7 @@
         <v>41</v>
       </c>
       <c r="K458" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.3">
@@ -10894,7 +10894,7 @@
         <v>1</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.3">
@@ -10918,7 +10918,7 @@
         <v>8</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>206</v>
+        <v>103</v>
       </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.3">
@@ -10979,7 +10979,7 @@
     </row>
     <row r="469" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A469" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -10991,7 +10991,7 @@
         <v>28</v>
       </c>
       <c r="E469" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F469" t="s">
         <v>20</v>
@@ -11003,7 +11003,7 @@
         <v>41</v>
       </c>
       <c r="K469" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.3">
